--- a/data/bb_obs_phenobc_Dec10.xlsx
+++ b/data/bb_obs_phenobc_Dec10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/pheno_bc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB476196-118D-9D4F-95CE-317EEAB570FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144EE8E6-FE3E-184F-A843-3CEBB6486DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28260" windowHeight="16040" xr2:uid="{229AA454-C590-1541-A1BC-CFF797B80867}"/>
   </bookViews>
@@ -875,9 +875,9 @@
   <dimension ref="A1:T1336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O236" sqref="O236"/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2723,7 +2723,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G33" s="5">
         <v>0</v>
@@ -2735,22 +2735,22 @@
         <v>1</v>
       </c>
       <c r="J33" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K33" s="5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L33" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>47</v>
@@ -2778,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G34" s="5">
         <v>10</v>
@@ -2790,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K34" s="5">
         <v>10</v>
@@ -3864,7 +3864,7 @@
         <v>27</v>
       </c>
       <c r="G53" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H53" s="5">
         <v>100</v>
@@ -3873,22 +3873,22 @@
         <v>1</v>
       </c>
       <c r="J53" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K53" s="5">
         <v>25</v>
       </c>
       <c r="L53" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M53" s="5">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="5">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="P53" s="5">
         <v>12</v>
@@ -8061,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="J127" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K127" s="5">
         <v>50</v>
@@ -8112,7 +8112,7 @@
         <v>7</v>
       </c>
       <c r="H128" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>47</v>
@@ -8127,13 +8127,13 @@
         <v>3</v>
       </c>
       <c r="M128" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N128" s="5">
         <v>1</v>
       </c>
       <c r="O128" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P128" s="5" t="s">
         <v>47</v>
@@ -9070,7 +9070,7 @@
         <v>6</v>
       </c>
       <c r="G145" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H145" s="5">
         <v>100</v>

--- a/data/bb_obs_phenobc_Dec10.xlsx
+++ b/data/bb_obs_phenobc_Dec10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/pheno_bc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368C9FA9-8507-C541-97C0-DCE6B482C416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A2BE5-57E2-F044-9C1D-B419DBA5DB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28260" windowHeight="16040" xr2:uid="{229AA454-C590-1541-A1BC-CFF797B80867}"/>
   </bookViews>
